--- a/data/pca/factorExposure/factorExposure_2015-01-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.007293667907941072</v>
+        <v>0.007368351610674792</v>
       </c>
       <c r="C2">
-        <v>0.04063198302507855</v>
+        <v>0.05532866128833407</v>
       </c>
       <c r="D2">
-        <v>-0.1258270561689075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08165187381588482</v>
+      </c>
+      <c r="E2">
+        <v>0.08843718341691088</v>
+      </c>
+      <c r="F2">
+        <v>0.1400380889540356</v>
+      </c>
+      <c r="G2">
+        <v>0.06002526532996076</v>
+      </c>
+      <c r="H2">
+        <v>-0.03798262321013457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0338854333056006</v>
+        <v>0.01715797597689964</v>
       </c>
       <c r="C4">
-        <v>0.120146860862389</v>
+        <v>0.1404389050408034</v>
       </c>
       <c r="D4">
-        <v>-0.08501872957482738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.04770349120225909</v>
+      </c>
+      <c r="E4">
+        <v>0.07019128594618575</v>
+      </c>
+      <c r="F4">
+        <v>0.1002050482876347</v>
+      </c>
+      <c r="G4">
+        <v>-0.07285649081597312</v>
+      </c>
+      <c r="H4">
+        <v>-0.008176790806661824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0194862765286006</v>
+        <v>0.02909545577260082</v>
       </c>
       <c r="C6">
-        <v>0.04179103366928162</v>
+        <v>0.053290799778858</v>
       </c>
       <c r="D6">
-        <v>-0.0781408826542298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05790341061568184</v>
+      </c>
+      <c r="E6">
+        <v>0.08600294006673073</v>
+      </c>
+      <c r="F6">
+        <v>0.0673892833395853</v>
+      </c>
+      <c r="G6">
+        <v>0.01135343237460225</v>
+      </c>
+      <c r="H6">
+        <v>0.05521564424547787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01196489582736076</v>
+        <v>0.003895731896448102</v>
       </c>
       <c r="C7">
-        <v>0.04149853129941575</v>
+        <v>0.05654630470719939</v>
       </c>
       <c r="D7">
-        <v>-0.07103938902449281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05385882045760552</v>
+      </c>
+      <c r="E7">
+        <v>0.06593319791018643</v>
+      </c>
+      <c r="F7">
+        <v>0.01234113792702707</v>
+      </c>
+      <c r="G7">
+        <v>-0.02095744398501443</v>
+      </c>
+      <c r="H7">
+        <v>0.02577980000700378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.004960884146201676</v>
+        <v>-0.007525007055840461</v>
       </c>
       <c r="C8">
-        <v>0.04727165864570119</v>
+        <v>0.05492578977261182</v>
       </c>
       <c r="D8">
-        <v>-0.06950237158244385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02453063621453022</v>
+      </c>
+      <c r="E8">
+        <v>0.05966583785582848</v>
+      </c>
+      <c r="F8">
+        <v>0.07509744363238667</v>
+      </c>
+      <c r="G8">
+        <v>-0.02194208555049035</v>
+      </c>
+      <c r="H8">
+        <v>-0.05282877162830954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01951532962949655</v>
+        <v>0.009708227392448551</v>
       </c>
       <c r="C9">
-        <v>0.09830367320040104</v>
+        <v>0.1120708480801245</v>
       </c>
       <c r="D9">
-        <v>-0.08055100153866246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0434163778102511</v>
+      </c>
+      <c r="E9">
+        <v>0.06103465227884772</v>
+      </c>
+      <c r="F9">
+        <v>0.06989561777647217</v>
+      </c>
+      <c r="G9">
+        <v>-0.02690951534190219</v>
+      </c>
+      <c r="H9">
+        <v>0.02796639305176369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2228508476575015</v>
+        <v>0.2428015936354741</v>
       </c>
       <c r="C10">
-        <v>-0.1061673229433865</v>
+        <v>-0.08133520402805945</v>
       </c>
       <c r="D10">
-        <v>0.04305765810013603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01453444721879231</v>
+      </c>
+      <c r="E10">
+        <v>-0.02148922101256634</v>
+      </c>
+      <c r="F10">
+        <v>0.01884762359368787</v>
+      </c>
+      <c r="G10">
+        <v>-0.009500592934250911</v>
+      </c>
+      <c r="H10">
+        <v>0.02099912370128841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.005645219889877627</v>
+        <v>0.009878464601135731</v>
       </c>
       <c r="C11">
-        <v>0.04770424197020181</v>
+        <v>0.06666657701012661</v>
       </c>
       <c r="D11">
-        <v>-0.0483789263044699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02583520650313001</v>
+      </c>
+      <c r="E11">
+        <v>0.05103161823167476</v>
+      </c>
+      <c r="F11">
+        <v>0.006081520092295305</v>
+      </c>
+      <c r="G11">
+        <v>-0.01550758797246351</v>
+      </c>
+      <c r="H11">
+        <v>0.02030843241379075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006990873857989237</v>
+        <v>0.01073598723117226</v>
       </c>
       <c r="C12">
-        <v>0.05116245772113555</v>
+        <v>0.05768870726983631</v>
       </c>
       <c r="D12">
-        <v>-0.04863778093921217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02824012898562404</v>
+      </c>
+      <c r="E12">
+        <v>0.0357931086656231</v>
+      </c>
+      <c r="F12">
+        <v>0.001364897451797021</v>
+      </c>
+      <c r="G12">
+        <v>0.01676418275228338</v>
+      </c>
+      <c r="H12">
+        <v>0.02321886245459965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01234521586093028</v>
+        <v>0.002209346617920282</v>
       </c>
       <c r="C13">
-        <v>0.06151481363353985</v>
+        <v>0.09016477349419461</v>
       </c>
       <c r="D13">
-        <v>-0.1214082759199209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.09626588394733325</v>
+      </c>
+      <c r="E13">
+        <v>0.09585887861256794</v>
+      </c>
+      <c r="F13">
+        <v>0.0656668742741266</v>
+      </c>
+      <c r="G13">
+        <v>0.09651427972291571</v>
+      </c>
+      <c r="H13">
+        <v>0.05105925169881537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01053392204788704</v>
+        <v>0.002233669762491622</v>
       </c>
       <c r="C14">
-        <v>0.02755196759091443</v>
+        <v>0.050294280125734</v>
       </c>
       <c r="D14">
-        <v>-0.06020925803571229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03803874243657344</v>
+      </c>
+      <c r="E14">
+        <v>0.1027097716702578</v>
+      </c>
+      <c r="F14">
+        <v>0.03610065249464634</v>
+      </c>
+      <c r="G14">
+        <v>0.03125674367052254</v>
+      </c>
+      <c r="H14">
+        <v>0.05496460803107348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.001643177361672241</v>
+        <v>-0.004946923425249412</v>
       </c>
       <c r="C15">
-        <v>0.02241902147990892</v>
+        <v>0.04335194874040878</v>
       </c>
       <c r="D15">
-        <v>-0.06671067855087691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04359383345911904</v>
+      </c>
+      <c r="E15">
+        <v>0.06572693283982327</v>
+      </c>
+      <c r="F15">
+        <v>0.0223260443212521</v>
+      </c>
+      <c r="G15">
+        <v>-0.005782091277012759</v>
+      </c>
+      <c r="H15">
+        <v>0.0009672239745637684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006022668423907509</v>
+        <v>0.009265901996909898</v>
       </c>
       <c r="C16">
-        <v>0.04465806203811093</v>
+        <v>0.05779904060617275</v>
       </c>
       <c r="D16">
-        <v>-0.04291289825291391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02697307508302668</v>
+      </c>
+      <c r="E16">
+        <v>0.03747623747821824</v>
+      </c>
+      <c r="F16">
+        <v>-0.002393646580790095</v>
+      </c>
+      <c r="G16">
+        <v>-0.007672937623385861</v>
+      </c>
+      <c r="H16">
+        <v>0.03392909539380382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006363242017551603</v>
+        <v>0.002369488866216594</v>
       </c>
       <c r="C19">
-        <v>0.01963705917876683</v>
+        <v>0.01446515583451661</v>
       </c>
       <c r="D19">
-        <v>-0.03051300630834413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.003760233919719672</v>
+      </c>
+      <c r="E19">
+        <v>0.01488462133733342</v>
+      </c>
+      <c r="F19">
+        <v>-2.589888553925181e-05</v>
+      </c>
+      <c r="G19">
+        <v>0.01710292622223175</v>
+      </c>
+      <c r="H19">
+        <v>-0.02105228566090176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.005282218888935231</v>
+        <v>0.001504052645275211</v>
       </c>
       <c r="C20">
-        <v>0.04268043355998294</v>
+        <v>0.0623724128693356</v>
       </c>
       <c r="D20">
-        <v>-0.05970732114162142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04615064955193867</v>
+      </c>
+      <c r="E20">
+        <v>0.05974351348028974</v>
+      </c>
+      <c r="F20">
+        <v>0.01748487447012759</v>
+      </c>
+      <c r="G20">
+        <v>-0.02199441273151063</v>
+      </c>
+      <c r="H20">
+        <v>0.03963867326397538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006259870408297699</v>
+        <v>0.004783433173432005</v>
       </c>
       <c r="C21">
-        <v>0.0639094683256072</v>
+        <v>0.07246339193133484</v>
       </c>
       <c r="D21">
-        <v>-0.08127556213326334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04326272178399764</v>
+      </c>
+      <c r="E21">
+        <v>0.07351173278407111</v>
+      </c>
+      <c r="F21">
+        <v>0.08842826936219014</v>
+      </c>
+      <c r="G21">
+        <v>0.1026388725690365</v>
+      </c>
+      <c r="H21">
+        <v>0.02690415778157482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.007254063566055621</v>
+        <v>-0.012980918739311</v>
       </c>
       <c r="C22">
-        <v>0.07282406280598276</v>
+        <v>0.1032625819963454</v>
       </c>
       <c r="D22">
-        <v>-0.1980322465448189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1870472333989166</v>
+      </c>
+      <c r="E22">
+        <v>0.1433051334392564</v>
+      </c>
+      <c r="F22">
+        <v>0.2469569015310816</v>
+      </c>
+      <c r="G22">
+        <v>-0.1061720496344707</v>
+      </c>
+      <c r="H22">
+        <v>-0.2378820029715762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.007463937157376989</v>
+        <v>-0.009866751223349061</v>
       </c>
       <c r="C23">
-        <v>0.07407408430985563</v>
+        <v>0.1061323600019737</v>
       </c>
       <c r="D23">
-        <v>-0.1973448848972033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1890500035958724</v>
+      </c>
+      <c r="E23">
+        <v>0.1400831297771128</v>
+      </c>
+      <c r="F23">
+        <v>0.2441772255478411</v>
+      </c>
+      <c r="G23">
+        <v>-0.1006400372107724</v>
+      </c>
+      <c r="H23">
+        <v>-0.2279385340300223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007253386257545455</v>
+        <v>0.01011947614700479</v>
       </c>
       <c r="C24">
-        <v>0.06716277619667219</v>
+        <v>0.07484333393221874</v>
       </c>
       <c r="D24">
-        <v>-0.05297735883683799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02062083047832905</v>
+      </c>
+      <c r="E24">
+        <v>0.05063925684762375</v>
+      </c>
+      <c r="F24">
+        <v>0.00408965356164712</v>
+      </c>
+      <c r="G24">
+        <v>-0.00232203794638442</v>
+      </c>
+      <c r="H24">
+        <v>0.01774517735585202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009839184912286731</v>
+        <v>0.01416220707994087</v>
       </c>
       <c r="C25">
-        <v>0.05932526062163038</v>
+        <v>0.06871879908887377</v>
       </c>
       <c r="D25">
-        <v>-0.04470159126442168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02203678298416386</v>
+      </c>
+      <c r="E25">
+        <v>0.03878757962357168</v>
+      </c>
+      <c r="F25">
+        <v>0.004655062430984108</v>
+      </c>
+      <c r="G25">
+        <v>-0.01075707722072716</v>
+      </c>
+      <c r="H25">
+        <v>0.02487485954237205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006074686762530588</v>
+        <v>0.01627093720137484</v>
       </c>
       <c r="C26">
-        <v>0.0298886375414239</v>
+        <v>0.04778565594350729</v>
       </c>
       <c r="D26">
-        <v>-0.05075144146839852</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.008872629635778359</v>
+      </c>
+      <c r="E26">
+        <v>0.08360765354735999</v>
+      </c>
+      <c r="F26">
+        <v>0.04753138132718123</v>
+      </c>
+      <c r="G26">
+        <v>0.004746653768350447</v>
+      </c>
+      <c r="H26">
+        <v>0.0193367892450169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3081952350372759</v>
+        <v>0.3153574814733053</v>
       </c>
       <c r="C28">
-        <v>-0.1161762208714076</v>
+        <v>-0.09362008929709234</v>
       </c>
       <c r="D28">
-        <v>0.03536048175481892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01862029764100593</v>
+      </c>
+      <c r="E28">
+        <v>-0.03792429044429578</v>
+      </c>
+      <c r="F28">
+        <v>0.06812731868355498</v>
+      </c>
+      <c r="G28">
+        <v>-0.01792333204157212</v>
+      </c>
+      <c r="H28">
+        <v>-0.06979841044556453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0001740142580944595</v>
+        <v>0.002321065061067973</v>
       </c>
       <c r="C29">
-        <v>0.03519988658709954</v>
+        <v>0.05907180539537196</v>
       </c>
       <c r="D29">
-        <v>-0.06942415996340828</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.05219570867149739</v>
+      </c>
+      <c r="E29">
+        <v>0.1054318884479166</v>
+      </c>
+      <c r="F29">
+        <v>0.03736181039314098</v>
+      </c>
+      <c r="G29">
+        <v>0.03755409866259702</v>
+      </c>
+      <c r="H29">
+        <v>0.08489713372640911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01650925988830157</v>
+        <v>0.01681733863440732</v>
       </c>
       <c r="C30">
-        <v>0.09772776057590296</v>
+        <v>0.1187295793805506</v>
       </c>
       <c r="D30">
-        <v>-0.1293898012009432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07249457263615669</v>
+      </c>
+      <c r="E30">
+        <v>0.1086967142173162</v>
+      </c>
+      <c r="F30">
+        <v>0.05258958347613224</v>
+      </c>
+      <c r="G30">
+        <v>-0.02624096287511683</v>
+      </c>
+      <c r="H30">
+        <v>0.003156848152690664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0117218842927226</v>
+        <v>0.008979382723473964</v>
       </c>
       <c r="C31">
-        <v>0.09925229595803038</v>
+        <v>0.1031331460059657</v>
       </c>
       <c r="D31">
-        <v>-0.03515957935674261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.002671326056528152</v>
+      </c>
+      <c r="E31">
+        <v>0.02549518327109254</v>
+      </c>
+      <c r="F31">
+        <v>-0.003487042471316313</v>
+      </c>
+      <c r="G31">
+        <v>0.004838418047385585</v>
+      </c>
+      <c r="H31">
+        <v>-0.02054625963244016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01336584116710296</v>
+        <v>0.01296646480887407</v>
       </c>
       <c r="C32">
-        <v>0.05936582166920894</v>
+        <v>0.06550260979959534</v>
       </c>
       <c r="D32">
-        <v>-0.08917469865683872</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04127072077969791</v>
+      </c>
+      <c r="E32">
+        <v>0.05125261892231799</v>
+      </c>
+      <c r="F32">
+        <v>0.09802523016623216</v>
+      </c>
+      <c r="G32">
+        <v>0.03245465448705349</v>
+      </c>
+      <c r="H32">
+        <v>0.01621833235627856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.000705225050092151</v>
+        <v>0.007023099844053622</v>
       </c>
       <c r="C33">
-        <v>0.06006169495837599</v>
+        <v>0.084080666694216</v>
       </c>
       <c r="D33">
-        <v>-0.08001887503343742</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05686471662781534</v>
+      </c>
+      <c r="E33">
+        <v>0.07612096054934181</v>
+      </c>
+      <c r="F33">
+        <v>0.03649980529990442</v>
+      </c>
+      <c r="G33">
+        <v>0.0006896213793028577</v>
+      </c>
+      <c r="H33">
+        <v>0.02174139627660598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005425181515226273</v>
+        <v>0.01021728705401967</v>
       </c>
       <c r="C34">
-        <v>0.0694863045147594</v>
+        <v>0.06759206508641082</v>
       </c>
       <c r="D34">
-        <v>-0.06718210349677106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01995053532306736</v>
+      </c>
+      <c r="E34">
+        <v>0.04332642229694904</v>
+      </c>
+      <c r="F34">
+        <v>-0.02688237328566066</v>
+      </c>
+      <c r="G34">
+        <v>0.01558028874105523</v>
+      </c>
+      <c r="H34">
+        <v>0.005310279386864971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.001171205270042436</v>
+        <v>0.004417384683745384</v>
       </c>
       <c r="C35">
-        <v>0.001707927598522131</v>
+        <v>0.02335399435223583</v>
       </c>
       <c r="D35">
-        <v>-0.006409447766777206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02072170071519994</v>
+      </c>
+      <c r="E35">
+        <v>0.03333946118827143</v>
+      </c>
+      <c r="F35">
+        <v>0.02353113221959291</v>
+      </c>
+      <c r="G35">
+        <v>0.001837311078535907</v>
+      </c>
+      <c r="H35">
+        <v>0.04355053518282576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.002457675769571488</v>
+        <v>0.008662630087758734</v>
       </c>
       <c r="C36">
-        <v>0.0277261970471087</v>
+        <v>0.03867955742185598</v>
       </c>
       <c r="D36">
-        <v>-0.04113264332351155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01691381637896913</v>
+      </c>
+      <c r="E36">
+        <v>0.06756195330988043</v>
+      </c>
+      <c r="F36">
+        <v>0.04883348842596456</v>
+      </c>
+      <c r="G36">
+        <v>-0.0004411690821458548</v>
+      </c>
+      <c r="H36">
+        <v>0.02437912110482193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005397127066401015</v>
+        <v>0.007418254343481104</v>
       </c>
       <c r="C38">
-        <v>0.01665034065307308</v>
+        <v>0.04012088550616464</v>
       </c>
       <c r="D38">
-        <v>-0.0636055222020131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.04268283598671323</v>
+      </c>
+      <c r="E38">
+        <v>0.07565896650460149</v>
+      </c>
+      <c r="F38">
+        <v>0.02045857620565036</v>
+      </c>
+      <c r="G38">
+        <v>-0.03393162104564661</v>
+      </c>
+      <c r="H38">
+        <v>-0.02834402170054617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.007785650811078847</v>
+        <v>0.007663294697581875</v>
       </c>
       <c r="C39">
-        <v>0.07799226178839577</v>
+        <v>0.1026093665208763</v>
       </c>
       <c r="D39">
-        <v>-0.1011892185358269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04245582535770046</v>
+      </c>
+      <c r="E39">
+        <v>0.09284482204570806</v>
+      </c>
+      <c r="F39">
+        <v>0.005785896429526288</v>
+      </c>
+      <c r="G39">
+        <v>0.007014606098743403</v>
+      </c>
+      <c r="H39">
+        <v>0.03670900083957124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0006615928237415414</v>
+        <v>0.007254201400757577</v>
       </c>
       <c r="C40">
-        <v>0.02981603756854317</v>
+        <v>0.05137201287024552</v>
       </c>
       <c r="D40">
-        <v>-0.09535105827497409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.07218979979795892</v>
+      </c>
+      <c r="E40">
+        <v>0.1046936100568151</v>
+      </c>
+      <c r="F40">
+        <v>0.003037343669393193</v>
+      </c>
+      <c r="G40">
+        <v>0.03440377885061763</v>
+      </c>
+      <c r="H40">
+        <v>0.01734007275390223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006991250336591197</v>
+        <v>0.01653093612356062</v>
       </c>
       <c r="C41">
-        <v>0.02194729979118437</v>
+        <v>0.03982780681594297</v>
       </c>
       <c r="D41">
-        <v>-0.01752307080654252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01730452118995736</v>
+      </c>
+      <c r="E41">
+        <v>0.01740929083846254</v>
+      </c>
+      <c r="F41">
+        <v>-0.005228678895063769</v>
+      </c>
+      <c r="G41">
+        <v>-0.003741150975078435</v>
+      </c>
+      <c r="H41">
+        <v>0.002634370382953843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003857916367636776</v>
+        <v>0.007752326054702244</v>
       </c>
       <c r="C43">
-        <v>0.01675142455359688</v>
+        <v>0.03256152464864778</v>
       </c>
       <c r="D43">
-        <v>-0.0358154262412638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02116885441934722</v>
+      </c>
+      <c r="E43">
+        <v>0.04129894514991058</v>
+      </c>
+      <c r="F43">
+        <v>0.002539606836284456</v>
+      </c>
+      <c r="G43">
+        <v>-0.01258715341875907</v>
+      </c>
+      <c r="H43">
+        <v>0.008315470510643005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01193243911304842</v>
+        <v>0.006107021885792372</v>
       </c>
       <c r="C44">
-        <v>0.05670319908595971</v>
+        <v>0.0735744604569932</v>
       </c>
       <c r="D44">
-        <v>-0.08444408209491838</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04759410981278953</v>
+      </c>
+      <c r="E44">
+        <v>0.09745363373033916</v>
+      </c>
+      <c r="F44">
+        <v>0.05170268038409922</v>
+      </c>
+      <c r="G44">
+        <v>-0.01101453001729437</v>
+      </c>
+      <c r="H44">
+        <v>-0.008351389973536245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.005063992155111437</v>
+        <v>-0.00243332386962888</v>
       </c>
       <c r="C46">
-        <v>0.04158833368548546</v>
+        <v>0.05146864043753565</v>
       </c>
       <c r="D46">
-        <v>-0.06891682792663691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02958303275708971</v>
+      </c>
+      <c r="E46">
+        <v>0.08362397835451682</v>
+      </c>
+      <c r="F46">
+        <v>0.03613682202872998</v>
+      </c>
+      <c r="G46">
+        <v>0.007904721096322179</v>
+      </c>
+      <c r="H46">
+        <v>0.03988743688003565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.04195995957799206</v>
+        <v>0.02803138822333321</v>
       </c>
       <c r="C47">
-        <v>0.1253037070465855</v>
+        <v>0.1211660837876142</v>
       </c>
       <c r="D47">
-        <v>-0.04293349361144273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.001827981846320064</v>
+      </c>
+      <c r="E47">
+        <v>0.01711950660084242</v>
+      </c>
+      <c r="F47">
+        <v>-0.01508888413975271</v>
+      </c>
+      <c r="G47">
+        <v>-0.01762101404466097</v>
+      </c>
+      <c r="H47">
+        <v>-0.00380462637884313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.002942416006411592</v>
+        <v>0.01154131964330563</v>
       </c>
       <c r="C48">
-        <v>0.03344344825488035</v>
+        <v>0.04674470801790697</v>
       </c>
       <c r="D48">
-        <v>-0.0435242223943251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009822839594303559</v>
+      </c>
+      <c r="E48">
+        <v>0.07832001454308336</v>
+      </c>
+      <c r="F48">
+        <v>0.05787634127341538</v>
+      </c>
+      <c r="G48">
+        <v>-0.005932961139339273</v>
+      </c>
+      <c r="H48">
+        <v>0.02311183603412843</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002543179070154061</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006080706488673643</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0008840730561000997</v>
+      </c>
+      <c r="E49">
+        <v>0.003081542411983666</v>
+      </c>
+      <c r="F49">
+        <v>-0.01300342417147935</v>
+      </c>
+      <c r="G49">
+        <v>0.004020483583581771</v>
+      </c>
+      <c r="H49">
+        <v>0.01556927002731067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01116406625914105</v>
+        <v>0.009434786953301678</v>
       </c>
       <c r="C50">
-        <v>0.06599390365239523</v>
+        <v>0.0788164176799301</v>
       </c>
       <c r="D50">
-        <v>-0.04895963598039705</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02271972351217092</v>
+      </c>
+      <c r="E50">
+        <v>0.03327098757348295</v>
+      </c>
+      <c r="F50">
+        <v>0.003754937536209345</v>
+      </c>
+      <c r="G50">
+        <v>-0.01061342353038306</v>
+      </c>
+      <c r="H50">
+        <v>-0.01351256264882182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002747191122491081</v>
+        <v>-0.007191482169397902</v>
       </c>
       <c r="C51">
-        <v>0.02086592961166694</v>
+        <v>0.0300039957999996</v>
       </c>
       <c r="D51">
-        <v>-0.06156803479336523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01766426309914422</v>
+      </c>
+      <c r="E51">
+        <v>0.05454224306398098</v>
+      </c>
+      <c r="F51">
+        <v>0.04692873041822165</v>
+      </c>
+      <c r="G51">
+        <v>0.01475779916966429</v>
+      </c>
+      <c r="H51">
+        <v>0.00170012878012069</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07279247866626325</v>
+        <v>0.05644366896479659</v>
       </c>
       <c r="C53">
-        <v>0.1613215370057279</v>
+        <v>0.1654321213660843</v>
       </c>
       <c r="D53">
-        <v>0.008133380777735422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04598350021307419</v>
+      </c>
+      <c r="E53">
+        <v>-0.04272549932252542</v>
+      </c>
+      <c r="F53">
+        <v>-0.00886806649649843</v>
+      </c>
+      <c r="G53">
+        <v>0.009551496430598501</v>
+      </c>
+      <c r="H53">
+        <v>-0.04030860002676814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.001430105124050613</v>
+        <v>0.009459198933963743</v>
       </c>
       <c r="C54">
-        <v>0.04013443741060298</v>
+        <v>0.05572473962935063</v>
       </c>
       <c r="D54">
-        <v>-0.08239153408731868</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.05387244675041069</v>
+      </c>
+      <c r="E54">
+        <v>0.05615602709219798</v>
+      </c>
+      <c r="F54">
+        <v>0.01296628448569207</v>
+      </c>
+      <c r="G54">
+        <v>-0.002644490756582851</v>
+      </c>
+      <c r="H54">
+        <v>0.001423136975238851</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.05219961080960864</v>
+        <v>0.0348890380611984</v>
       </c>
       <c r="C55">
-        <v>0.1240989542585836</v>
+        <v>0.1222620925409391</v>
       </c>
       <c r="D55">
-        <v>0.003952688131237329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05611806749248661</v>
+      </c>
+      <c r="E55">
+        <v>-0.01313270750807402</v>
+      </c>
+      <c r="F55">
+        <v>-0.03191262794921356</v>
+      </c>
+      <c r="G55">
+        <v>0.01791362711764505</v>
+      </c>
+      <c r="H55">
+        <v>-0.03752543872901788</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.0813954734349156</v>
+        <v>0.05402650245867757</v>
       </c>
       <c r="C56">
-        <v>0.184201316397884</v>
+        <v>0.1889800177056958</v>
       </c>
       <c r="D56">
-        <v>-0.01967590834756095</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05985927649963224</v>
+      </c>
+      <c r="E56">
+        <v>-0.03320674096638726</v>
+      </c>
+      <c r="F56">
+        <v>-0.04624649265024355</v>
+      </c>
+      <c r="G56">
+        <v>0.03938215065853006</v>
+      </c>
+      <c r="H56">
+        <v>-0.1199812231082205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01294565886058354</v>
+        <v>0.008424230426885429</v>
       </c>
       <c r="C58">
-        <v>0.05699421904503725</v>
+        <v>0.1064816944696376</v>
       </c>
       <c r="D58">
-        <v>-0.1789947708059536</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1702248881175298</v>
+      </c>
+      <c r="E58">
+        <v>0.1328351157056429</v>
+      </c>
+      <c r="F58">
+        <v>0.2630946659224911</v>
+      </c>
+      <c r="G58">
+        <v>-0.06438237667170198</v>
+      </c>
+      <c r="H58">
+        <v>-0.1285044787247047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2343741826405447</v>
+        <v>0.2664891995273099</v>
       </c>
       <c r="C59">
-        <v>-0.06978684341238052</v>
+        <v>-0.04852120562624539</v>
       </c>
       <c r="D59">
-        <v>-0.04733815710655657</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02466093228223278</v>
+      </c>
+      <c r="E59">
+        <v>0.02156879020652214</v>
+      </c>
+      <c r="F59">
+        <v>0.04959206870110582</v>
+      </c>
+      <c r="G59">
+        <v>0.03058482843975157</v>
+      </c>
+      <c r="H59">
+        <v>-0.006823588755452828</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1424526777056099</v>
+        <v>0.1489081851127825</v>
       </c>
       <c r="C60">
-        <v>0.1365313756693607</v>
+        <v>0.1621056512740723</v>
       </c>
       <c r="D60">
-        <v>-0.1002693488102673</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.05210376279547675</v>
+      </c>
+      <c r="E60">
+        <v>0.06857198253916441</v>
+      </c>
+      <c r="F60">
+        <v>-0.2132350718952553</v>
+      </c>
+      <c r="G60">
+        <v>0.05042627746759164</v>
+      </c>
+      <c r="H60">
+        <v>0.2270063738603247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01341176101955563</v>
+        <v>0.01423455418509805</v>
       </c>
       <c r="C61">
-        <v>0.06705782186268604</v>
+        <v>0.08917174491781003</v>
       </c>
       <c r="D61">
-        <v>-0.07107301495198343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02909935873371032</v>
+      </c>
+      <c r="E61">
+        <v>0.07291494374471427</v>
+      </c>
+      <c r="F61">
+        <v>-0.00546329391296955</v>
+      </c>
+      <c r="G61">
+        <v>0.004906374354740753</v>
+      </c>
+      <c r="H61">
+        <v>0.02039545828906217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002467277563183533</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0008566944938646501</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-1.34314999890583e-05</v>
+      </c>
+      <c r="E62">
+        <v>-7.736277081706171e-06</v>
+      </c>
+      <c r="F62">
+        <v>0.002264305745615358</v>
+      </c>
+      <c r="G62">
+        <v>-2.482297396168443e-05</v>
+      </c>
+      <c r="H62">
+        <v>-0.0007815216631979214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.001634131438473362</v>
+        <v>0.0155145043378304</v>
       </c>
       <c r="C63">
-        <v>0.04649067792600961</v>
+        <v>0.06278609384997684</v>
       </c>
       <c r="D63">
-        <v>-0.0630518701280071</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01941951693598742</v>
+      </c>
+      <c r="E63">
+        <v>0.07814395368150714</v>
+      </c>
+      <c r="F63">
+        <v>0.014410599454473</v>
+      </c>
+      <c r="G63">
+        <v>-0.0006131892368232037</v>
+      </c>
+      <c r="H63">
+        <v>0.02453464871519643</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02901958913199066</v>
+        <v>0.0154123276680706</v>
       </c>
       <c r="C64">
-        <v>0.1095140013894032</v>
+        <v>0.1058646992232851</v>
       </c>
       <c r="D64">
-        <v>-0.01364258968151136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01115215406577586</v>
+      </c>
+      <c r="E64">
+        <v>0.02579366950262526</v>
+      </c>
+      <c r="F64">
+        <v>0.01249428223652133</v>
+      </c>
+      <c r="G64">
+        <v>-0.03296257850611974</v>
+      </c>
+      <c r="H64">
+        <v>0.04192738625889705</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0208068002468827</v>
+        <v>0.02478614738077702</v>
       </c>
       <c r="C65">
-        <v>0.03686610440600242</v>
+        <v>0.06228283657705278</v>
       </c>
       <c r="D65">
-        <v>-0.08796294687824267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07897859092766298</v>
+      </c>
+      <c r="E65">
+        <v>0.08749535314838712</v>
+      </c>
+      <c r="F65">
+        <v>-0.0007392169294612502</v>
+      </c>
+      <c r="G65">
+        <v>-0.04279535409335095</v>
+      </c>
+      <c r="H65">
+        <v>0.08570772795522986</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0150611688715045</v>
+        <v>0.009661213979341186</v>
       </c>
       <c r="C66">
-        <v>0.09471501596221898</v>
+        <v>0.1265246970967868</v>
       </c>
       <c r="D66">
-        <v>-0.1300429286877781</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07432811838624261</v>
+      </c>
+      <c r="E66">
+        <v>0.09673747971729879</v>
+      </c>
+      <c r="F66">
+        <v>0.01843730692564071</v>
+      </c>
+      <c r="G66">
+        <v>0.004536179260494618</v>
+      </c>
+      <c r="H66">
+        <v>0.006671444560594478</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01613083526788584</v>
+        <v>0.01658532857569674</v>
       </c>
       <c r="C67">
-        <v>0.02127285309672228</v>
+        <v>0.04114273877027233</v>
       </c>
       <c r="D67">
-        <v>-0.0351623305305568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01729425138179064</v>
+      </c>
+      <c r="E67">
+        <v>0.0625081076704414</v>
+      </c>
+      <c r="F67">
+        <v>-0.02143836187657541</v>
+      </c>
+      <c r="G67">
+        <v>-0.02552540424799397</v>
+      </c>
+      <c r="H67">
+        <v>-0.01058597131530619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2373757726070146</v>
+        <v>0.2780425470891181</v>
       </c>
       <c r="C68">
-        <v>-0.08170685827164666</v>
+        <v>-0.05731600715091595</v>
       </c>
       <c r="D68">
-        <v>-0.02305585496629297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.04440386381090496</v>
+      </c>
+      <c r="E68">
+        <v>0.007688701371816785</v>
+      </c>
+      <c r="F68">
+        <v>0.05161239908444945</v>
+      </c>
+      <c r="G68">
+        <v>-0.004097548270684822</v>
+      </c>
+      <c r="H68">
+        <v>-0.03724708955600756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0312249927446053</v>
+        <v>0.01345855887779357</v>
       </c>
       <c r="C69">
-        <v>0.1282571887419432</v>
+        <v>0.1097537216365567</v>
       </c>
       <c r="D69">
-        <v>-0.05189828751302824</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01246878670114683</v>
+      </c>
+      <c r="E69">
+        <v>0.02808484571802017</v>
+      </c>
+      <c r="F69">
+        <v>-0.02464185260000693</v>
+      </c>
+      <c r="G69">
+        <v>-0.00283811785444069</v>
+      </c>
+      <c r="H69">
+        <v>-0.006257992809037829</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2583737275439861</v>
+        <v>0.269990919969258</v>
       </c>
       <c r="C71">
-        <v>-0.1042873474859244</v>
+        <v>-0.07658804676255106</v>
       </c>
       <c r="D71">
-        <v>-0.0175244958940935</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01605838115166683</v>
+      </c>
+      <c r="E71">
+        <v>0.01660552670229636</v>
+      </c>
+      <c r="F71">
+        <v>0.02420893480579211</v>
+      </c>
+      <c r="G71">
+        <v>-0.01697127258875768</v>
+      </c>
+      <c r="H71">
+        <v>-0.0281517958019855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0784996402723471</v>
+        <v>0.06230725996226686</v>
       </c>
       <c r="C72">
-        <v>0.1147882121747998</v>
+        <v>0.1340803394106067</v>
       </c>
       <c r="D72">
-        <v>-0.08896289883284521</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02580354927104987</v>
+      </c>
+      <c r="E72">
+        <v>0.05262465796952824</v>
+      </c>
+      <c r="F72">
+        <v>-0.03510484446401294</v>
+      </c>
+      <c r="G72">
+        <v>-0.01286062933101242</v>
+      </c>
+      <c r="H72">
+        <v>0.04808689423612537</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1307134614178211</v>
+        <v>0.1477789737957843</v>
       </c>
       <c r="C73">
-        <v>0.1211117563523004</v>
+        <v>0.1754849056317637</v>
       </c>
       <c r="D73">
-        <v>-0.1565718360457372</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07543996472213881</v>
+      </c>
+      <c r="E73">
+        <v>0.1654644298100839</v>
+      </c>
+      <c r="F73">
+        <v>-0.3496858460583553</v>
+      </c>
+      <c r="G73">
+        <v>0.0161227960522109</v>
+      </c>
+      <c r="H73">
+        <v>0.3575434848664163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06473160694780193</v>
+        <v>0.04563482919391005</v>
       </c>
       <c r="C74">
-        <v>0.1408706153306811</v>
+        <v>0.1377864615063807</v>
       </c>
       <c r="D74">
-        <v>0.05406813334546995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06978948856465833</v>
+      </c>
+      <c r="E74">
+        <v>-0.03752488124647161</v>
+      </c>
+      <c r="F74">
+        <v>-0.01356988176210088</v>
+      </c>
+      <c r="G74">
+        <v>-0.002230132886681191</v>
+      </c>
+      <c r="H74">
+        <v>-0.02530489522041618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1600770522315224</v>
+        <v>0.09333413841173632</v>
       </c>
       <c r="C75">
-        <v>0.2400313950141512</v>
+        <v>0.2407823551796977</v>
       </c>
       <c r="D75">
-        <v>0.02910895098418703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1172302343447476</v>
+      </c>
+      <c r="E75">
+        <v>-0.09370776316832245</v>
+      </c>
+      <c r="F75">
+        <v>-0.1369817117893629</v>
+      </c>
+      <c r="G75">
+        <v>-0.01406755267138398</v>
+      </c>
+      <c r="H75">
+        <v>-0.2410672679196722</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.08515723288433021</v>
+        <v>0.05357121295545669</v>
       </c>
       <c r="C76">
-        <v>0.1708865836641634</v>
+        <v>0.1749732836529185</v>
       </c>
       <c r="D76">
-        <v>-0.007629504929929719</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06331022137652709</v>
+      </c>
+      <c r="E76">
+        <v>-0.02467985627432945</v>
+      </c>
+      <c r="F76">
+        <v>-0.07201976819222587</v>
+      </c>
+      <c r="G76">
+        <v>0.02997950518281064</v>
+      </c>
+      <c r="H76">
+        <v>-0.07287878481843033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.02552737639905229</v>
+        <v>0.02200875897424372</v>
       </c>
       <c r="C77">
-        <v>0.08267035998390423</v>
+        <v>0.1305046782301423</v>
       </c>
       <c r="D77">
-        <v>-0.2483388312127685</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7351361225770401</v>
+      </c>
+      <c r="E77">
+        <v>-0.6359840482107834</v>
+      </c>
+      <c r="F77">
+        <v>-0.08736039239828887</v>
+      </c>
+      <c r="G77">
+        <v>-0.03916260737098796</v>
+      </c>
+      <c r="H77">
+        <v>0.03915221078124093</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02349615043164793</v>
+        <v>0.02352748148808659</v>
       </c>
       <c r="C78">
-        <v>0.09523713235686332</v>
+        <v>0.1055268253512607</v>
       </c>
       <c r="D78">
-        <v>-0.1143327902954868</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.01769586885395929</v>
+      </c>
+      <c r="E78">
+        <v>0.09751197965035856</v>
+      </c>
+      <c r="F78">
+        <v>0.06702604062398447</v>
+      </c>
+      <c r="G78">
+        <v>0.04339907417101693</v>
+      </c>
+      <c r="H78">
+        <v>-0.06952245624479214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0750124717291685</v>
+        <v>0.05262740763311988</v>
       </c>
       <c r="C79">
-        <v>0.3387133531360301</v>
+        <v>0.2665757822622631</v>
       </c>
       <c r="D79">
-        <v>0.6723038425783576</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.3427667854907858</v>
+      </c>
+      <c r="E79">
+        <v>-0.3828553360669655</v>
+      </c>
+      <c r="F79">
+        <v>0.5365140777736479</v>
+      </c>
+      <c r="G79">
+        <v>-0.2444914516027357</v>
+      </c>
+      <c r="H79">
+        <v>0.4862845267565849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.003093752552793671</v>
+        <v>0.007905643838220686</v>
       </c>
       <c r="C80">
-        <v>0.05296420860783042</v>
+        <v>0.05291972836503101</v>
       </c>
       <c r="D80">
-        <v>-0.03079184170607886</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.00136402948025512</v>
+      </c>
+      <c r="E80">
+        <v>0.06217680884871492</v>
+      </c>
+      <c r="F80">
+        <v>-0.01372337974509788</v>
+      </c>
+      <c r="G80">
+        <v>0.06033785832701515</v>
+      </c>
+      <c r="H80">
+        <v>0.04440336782186769</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06622959842844883</v>
+        <v>0.03004409155916145</v>
       </c>
       <c r="C81">
-        <v>0.163082012683353</v>
+        <v>0.1567753062891853</v>
       </c>
       <c r="D81">
-        <v>0.06486056585819094</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08645175468742511</v>
+      </c>
+      <c r="E81">
+        <v>-0.06173807053757852</v>
+      </c>
+      <c r="F81">
+        <v>-0.005057848815327966</v>
+      </c>
+      <c r="G81">
+        <v>0.02984686219580979</v>
+      </c>
+      <c r="H81">
+        <v>-0.09254618263847421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1207810782909847</v>
+        <v>0.0691527431539475</v>
       </c>
       <c r="C82">
-        <v>0.253559887219139</v>
+        <v>0.2223005741790205</v>
       </c>
       <c r="D82">
-        <v>0.02986398980828389</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1257179596024996</v>
+      </c>
+      <c r="E82">
+        <v>-0.06287775029889553</v>
+      </c>
+      <c r="F82">
+        <v>-0.08296109273304685</v>
+      </c>
+      <c r="G82">
+        <v>0.07400882533856055</v>
+      </c>
+      <c r="H82">
+        <v>-0.1436478783347768</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01507080981389558</v>
+        <v>-0.004769722979332332</v>
       </c>
       <c r="C83">
-        <v>0.05605727161402223</v>
+        <v>0.01962330344948748</v>
       </c>
       <c r="D83">
-        <v>-0.01787206886868198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01755739488194474</v>
+      </c>
+      <c r="E83">
+        <v>-0.09247767556232576</v>
+      </c>
+      <c r="F83">
+        <v>0.2403756925332675</v>
+      </c>
+      <c r="G83">
+        <v>0.9048397046460461</v>
+      </c>
+      <c r="H83">
+        <v>0.09331526220991095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.003057519186014509</v>
+        <v>-0.002968517501422454</v>
       </c>
       <c r="C84">
-        <v>0.01056781741091827</v>
+        <v>0.0255779090677517</v>
       </c>
       <c r="D84">
-        <v>-0.0208706076547776</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02572838895159063</v>
+      </c>
+      <c r="E84">
+        <v>0.0449983743394885</v>
+      </c>
+      <c r="F84">
+        <v>0.05724277278536574</v>
+      </c>
+      <c r="G84">
+        <v>-0.03857872268568784</v>
+      </c>
+      <c r="H84">
+        <v>-0.0499092327436472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.07614262250408031</v>
+        <v>0.04611072592241349</v>
       </c>
       <c r="C85">
-        <v>0.1833066402686177</v>
+        <v>0.1740949693360265</v>
       </c>
       <c r="D85">
-        <v>0.08618741873902035</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1247481532775782</v>
+      </c>
+      <c r="E85">
+        <v>-0.07054978506702908</v>
+      </c>
+      <c r="F85">
+        <v>-0.009269977439662447</v>
+      </c>
+      <c r="G85">
+        <v>0.003155700326226851</v>
+      </c>
+      <c r="H85">
+        <v>-0.06466247752165173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02787714839719379</v>
+        <v>0.01649796631285011</v>
       </c>
       <c r="C86">
-        <v>0.02531527407953116</v>
+        <v>0.05391243395674262</v>
       </c>
       <c r="D86">
-        <v>-0.0795159960801959</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05811192951030419</v>
+      </c>
+      <c r="E86">
+        <v>0.03651075929193501</v>
+      </c>
+      <c r="F86">
+        <v>0.0765368530560273</v>
+      </c>
+      <c r="G86">
+        <v>-0.03959415373417155</v>
+      </c>
+      <c r="H86">
+        <v>-0.03962504301883252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02171313519460238</v>
+        <v>0.01309831479447124</v>
       </c>
       <c r="C87">
-        <v>0.06549896069624937</v>
+        <v>0.08588538984242097</v>
       </c>
       <c r="D87">
-        <v>-0.1231526594417155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08618960624923343</v>
+      </c>
+      <c r="E87">
+        <v>0.07840090696552057</v>
+      </c>
+      <c r="F87">
+        <v>0.08781372047634588</v>
+      </c>
+      <c r="G87">
+        <v>-0.009903401183997523</v>
+      </c>
+      <c r="H87">
+        <v>-0.04799625003757103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0331986354402718</v>
+        <v>0.0343545189275434</v>
       </c>
       <c r="C88">
-        <v>0.07475810806970039</v>
+        <v>0.0813027227093371</v>
       </c>
       <c r="D88">
-        <v>-0.002891497013363383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.008029056867429043</v>
+      </c>
+      <c r="E88">
+        <v>0.02699577981042775</v>
+      </c>
+      <c r="F88">
+        <v>-0.01141189064771208</v>
+      </c>
+      <c r="G88">
+        <v>-0.005586481633345573</v>
+      </c>
+      <c r="H88">
+        <v>0.01230575035691576</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.4149156927696475</v>
+        <v>0.4044773093596442</v>
       </c>
       <c r="C89">
-        <v>-0.2009854893581914</v>
+        <v>-0.15050216644606</v>
       </c>
       <c r="D89">
-        <v>0.0152146567920416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02030047527667175</v>
+      </c>
+      <c r="E89">
+        <v>0.01607257990293449</v>
+      </c>
+      <c r="F89">
+        <v>0.1237861848528806</v>
+      </c>
+      <c r="G89">
+        <v>0.09270289798614477</v>
+      </c>
+      <c r="H89">
+        <v>-0.01741993651134602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.3187255278091817</v>
+        <v>0.3252596940571244</v>
       </c>
       <c r="C90">
-        <v>-0.1338547151624599</v>
+        <v>-0.09058879523728373</v>
       </c>
       <c r="D90">
-        <v>-0.06998076233174426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03788675193952219</v>
+      </c>
+      <c r="E90">
+        <v>0.03435409024327926</v>
+      </c>
+      <c r="F90">
+        <v>-0.001252283471330847</v>
+      </c>
+      <c r="G90">
+        <v>0.001107363503792154</v>
+      </c>
+      <c r="H90">
+        <v>-0.03223622083079805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0964236596964721</v>
+        <v>0.06294966612882021</v>
       </c>
       <c r="C91">
-        <v>0.2214516246115222</v>
+        <v>0.1909920547873014</v>
       </c>
       <c r="D91">
-        <v>0.08333169761692094</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1046035318493995</v>
+      </c>
+      <c r="E91">
+        <v>-0.1004409425468929</v>
+      </c>
+      <c r="F91">
+        <v>-0.004791383714866568</v>
+      </c>
+      <c r="G91">
+        <v>0.02520589622332258</v>
+      </c>
+      <c r="H91">
+        <v>-0.03667002253306783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.3185511648312209</v>
+        <v>0.343490284620255</v>
       </c>
       <c r="C92">
-        <v>-0.1488073815056485</v>
+        <v>-0.1208494943159833</v>
       </c>
       <c r="D92">
-        <v>0.01821115046865681</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02251865492078323</v>
+      </c>
+      <c r="E92">
+        <v>-0.02071159068051916</v>
+      </c>
+      <c r="F92">
+        <v>0.06402015774559995</v>
+      </c>
+      <c r="G92">
+        <v>-0.08131512683514083</v>
+      </c>
+      <c r="H92">
+        <v>-0.03756922151022903</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3355394201792084</v>
+        <v>0.3308773423904696</v>
       </c>
       <c r="C93">
-        <v>-0.1506623021940052</v>
+        <v>-0.1166900056624832</v>
       </c>
       <c r="D93">
-        <v>0.03409735418268128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02765999217004238</v>
+      </c>
+      <c r="E93">
+        <v>-0.007610284518539301</v>
+      </c>
+      <c r="F93">
+        <v>0.0116553958464802</v>
+      </c>
+      <c r="G93">
+        <v>-0.04996420981144876</v>
+      </c>
+      <c r="H93">
+        <v>0.009485068130042107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1601525478978671</v>
+        <v>0.1098438772989463</v>
       </c>
       <c r="C94">
-        <v>0.2778698324208458</v>
+        <v>0.2642156320137497</v>
       </c>
       <c r="D94">
-        <v>0.09284933616967433</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.2032574007315564</v>
+      </c>
+      <c r="E94">
+        <v>-0.1944262649046027</v>
+      </c>
+      <c r="F94">
+        <v>-0.1701752973570524</v>
+      </c>
+      <c r="G94">
+        <v>0.08202520952180752</v>
+      </c>
+      <c r="H94">
+        <v>-0.4034696920908666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.03185180123572569</v>
+        <v>0.03286573314726078</v>
       </c>
       <c r="C95">
-        <v>0.05463523009278078</v>
+        <v>0.09169697060588156</v>
       </c>
       <c r="D95">
-        <v>-0.0774518733211427</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05421347436470686</v>
+      </c>
+      <c r="E95">
+        <v>0.07492101883896536</v>
+      </c>
+      <c r="F95">
+        <v>-0.06031819983400034</v>
+      </c>
+      <c r="G95">
+        <v>0.001790654217750557</v>
+      </c>
+      <c r="H95">
+        <v>0.008633842604615936</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002197461028187797</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001917359676751264</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.00193832634479518</v>
+      </c>
+      <c r="E97">
+        <v>0.007993082504801428</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004447946881479791</v>
+      </c>
+      <c r="G97">
+        <v>-0.006557560399659465</v>
+      </c>
+      <c r="H97">
+        <v>-0.0005314061101475001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1124308707815066</v>
+        <v>0.1299080874065463</v>
       </c>
       <c r="C98">
-        <v>0.1084291342006642</v>
+        <v>0.150309012525857</v>
       </c>
       <c r="D98">
-        <v>-0.1150863945800103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04274787207743565</v>
+      </c>
+      <c r="E98">
+        <v>0.1187257109172237</v>
+      </c>
+      <c r="F98">
+        <v>-0.2682462606753324</v>
+      </c>
+      <c r="G98">
+        <v>0.0009031344473588802</v>
+      </c>
+      <c r="H98">
+        <v>0.2945754693748106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.000896372882277006</v>
+        <v>0.002451836105135486</v>
       </c>
       <c r="C101">
-        <v>0.03458061220895285</v>
+        <v>0.058014857700219</v>
       </c>
       <c r="D101">
-        <v>-0.06924325756643379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.05224723847385773</v>
+      </c>
+      <c r="E101">
+        <v>0.1041209358520805</v>
+      </c>
+      <c r="F101">
+        <v>0.03697240159881064</v>
+      </c>
+      <c r="G101">
+        <v>0.03728831796529523</v>
+      </c>
+      <c r="H101">
+        <v>0.08369545832616669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.05102094078575364</v>
+        <v>0.01860648787016968</v>
       </c>
       <c r="C102">
-        <v>0.1385212516652164</v>
+        <v>0.09824250207482525</v>
       </c>
       <c r="D102">
-        <v>-0.003789729022616233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05406321260383826</v>
+      </c>
+      <c r="E102">
+        <v>-0.04639117838572401</v>
+      </c>
+      <c r="F102">
+        <v>-0.05531785177881687</v>
+      </c>
+      <c r="G102">
+        <v>0.04003303418776821</v>
+      </c>
+      <c r="H102">
+        <v>-0.05503817436165163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
